--- a/src/lib/excels/VC_Comps.xlsx
+++ b/src/lib/excels/VC_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E699D8-5B23-234D-AAB7-CF60CBB47058}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA9C1A9-F3BF-6647-B05A-7090AA17596A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B0781A11-2AB5-154E-94CA-C5BB8D9F3C92}"/>
   </bookViews>
@@ -81,21 +81,9 @@
     <t>FinalNRepos</t>
   </si>
   <si>
-    <t>NPrivateReposIncluded</t>
-  </si>
-  <si>
-    <t>NPrivateReposPerExtraUser</t>
-  </si>
-  <si>
     <t>FinalDiskSpace</t>
   </si>
   <si>
-    <t>DiskSpaceGB</t>
-  </si>
-  <si>
-    <t>DiskSpaceExtraUserGB</t>
-  </si>
-  <si>
     <t>PriceExtraGBDiskSpace</t>
   </si>
   <si>
@@ -129,21 +117,9 @@
     <t>Repositories</t>
   </si>
   <si>
-    <t>Private Repositories</t>
-  </si>
-  <si>
-    <t>Private Repos Per Extra User</t>
-  </si>
-  <si>
     <t>Disk Space</t>
   </si>
   <si>
-    <t>Base Disk Space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk Space per extra user </t>
-  </si>
-  <si>
     <t>Price per Extra GB of Disk Space</t>
   </si>
   <si>
@@ -415,6 +391,30 @@
   </si>
   <si>
     <t>Runtime calc</t>
+  </si>
+  <si>
+    <t>NPrivateReposFormula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nº Private Repositories Formula</t>
+  </si>
+  <si>
+    <t>DiskSpaceGBFormula</t>
+  </si>
+  <si>
+    <t>2+(extraUsers*10)</t>
+  </si>
+  <si>
+    <t>10+(extraUsers*10)</t>
+  </si>
+  <si>
+    <t>25+(extraUsers*25)</t>
+  </si>
+  <si>
+    <t>100+(extraUsers*100)</t>
+  </si>
+  <si>
+    <t>Disk Space Included Formula</t>
   </si>
 </sst>
 </file>
@@ -489,16 +489,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -580,32 +571,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{849EBF7C-AD1D-EE43-8D1B-02B9ABB26E3A}" name="Table1" displayName="Table1" ref="A1:W43" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A1:W43" xr:uid="{849EBF7C-AD1D-EE43-8D1B-02B9ABB26E3A}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{8E01959E-A842-C74F-AE57-5DDD0989A6E2}" name="Brand" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{9D4B6E44-8C12-3047-899D-F05AE68B781E}" name="Service" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{EF974245-B75B-A24C-BEA6-345371A998E0}" name="desc_Service" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{2F338ADC-DFD7-D14D-9D52-D4B3C0495223}" name="colID" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{5D9A2FB4-4A19-744C-96CA-465FB8505C95}" name="CalculatedCost" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{47FF9E4C-10AF-144D-97F1-3833F1E9E860}" name="LicenseCost$PerMonth" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{72F75287-8FED-FA4D-919A-D41BD1679788}" name="ExtrasIncluded" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{243EEEB3-33AF-7945-A473-672ED0D2BBFF}" name="Self-hosted" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{8471C54A-653F-AD46-8E15-7637ADC84B1F}" name="Issues" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{DF9F8897-F0FC-E24F-9E2D-83D28F1CDE4D}" name="Kanban" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{FDA29895-2310-1E4B-AAC9-97D97CBF4648}" name="Wiki" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{8708C288-A63C-6C4A-92A5-C440C76F6BF2}" name="PackageRegistry" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{BB74161C-CD38-3249-9310-611A50F2182D}" name="IncludedUsers" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{8BD2E13A-BAA4-7949-BABF-8C9FDECD6087}" name="MaxUsers" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{ECD68C8E-4269-464E-A0B3-415F61071719}" name="PriceExtraUser$" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{210BB43B-6F9F-0B44-A6E0-96FA71E4D12B}" name="FinalNRepos" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{44B3B980-513E-3B49-BA84-EDA570C18A58}" name="NPrivateReposIncluded" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{2967174C-2155-B647-B1F7-9D4720CAE90C}" name="NPrivateReposPerExtraUser" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{77A95219-F85F-A04B-9505-8FCC06CF2E13}" name="FinalDiskSpace" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{433A166D-ABE9-B14E-8D2C-F30B9B724847}" name="DiskSpaceGB" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{F66FB305-B9D9-794B-8DC2-66255AFCE84D}" name="DiskSpaceExtraUserGB" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{E6907AB6-1173-6B4A-9BD5-FC4C337ADCB1}" name="PriceExtraGBDiskSpace" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{F7440A6F-BDB4-614F-918B-5C4E66379441}" name="CommercialSupport" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{849EBF7C-AD1D-EE43-8D1B-02B9ABB26E3A}" name="Table1" displayName="Table1" ref="A1:U43" totalsRowShown="0" dataDxfId="20">
+  <autoFilter ref="A1:U43" xr:uid="{849EBF7C-AD1D-EE43-8D1B-02B9ABB26E3A}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{8E01959E-A842-C74F-AE57-5DDD0989A6E2}" name="Brand" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{9D4B6E44-8C12-3047-899D-F05AE68B781E}" name="Service" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{EF974245-B75B-A24C-BEA6-345371A998E0}" name="desc_Service" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2F338ADC-DFD7-D14D-9D52-D4B3C0495223}" name="colID" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{5D9A2FB4-4A19-744C-96CA-465FB8505C95}" name="CalculatedCost" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{47FF9E4C-10AF-144D-97F1-3833F1E9E860}" name="LicenseCost$PerMonth" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{72F75287-8FED-FA4D-919A-D41BD1679788}" name="ExtrasIncluded" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{243EEEB3-33AF-7945-A473-672ED0D2BBFF}" name="Self-hosted" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{8471C54A-653F-AD46-8E15-7637ADC84B1F}" name="Issues" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{DF9F8897-F0FC-E24F-9E2D-83D28F1CDE4D}" name="Kanban" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{FDA29895-2310-1E4B-AAC9-97D97CBF4648}" name="Wiki" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{8708C288-A63C-6C4A-92A5-C440C76F6BF2}" name="PackageRegistry" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{BB74161C-CD38-3249-9310-611A50F2182D}" name="IncludedUsers" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8BD2E13A-BAA4-7949-BABF-8C9FDECD6087}" name="MaxUsers" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{ECD68C8E-4269-464E-A0B3-415F61071719}" name="PriceExtraUser$" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{210BB43B-6F9F-0B44-A6E0-96FA71E4D12B}" name="FinalNRepos" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6F08C059-DEAB-8B4C-B547-0A0C17E0C409}" name="NPrivateReposFormula"/>
+    <tableColumn id="13" xr3:uid="{77A95219-F85F-A04B-9505-8FCC06CF2E13}" name="FinalDiskSpace" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{5715783A-23BB-3B4C-AA46-D3B153BF2A64}" name="DiskSpaceGBFormula" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{E6907AB6-1173-6B4A-9BD5-FC4C337ADCB1}" name="PriceExtraGBDiskSpace" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{F7440A6F-BDB4-614F-918B-5C4E66379441}" name="CommercialSupport" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -908,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078D323-4F89-A64F-AD37-C75ADCE8B739}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,18 +919,14 @@
     <col min="13" max="13" width="7" customWidth="1"/>
     <col min="14" max="14" width="5.5" customWidth="1"/>
     <col min="15" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" customWidth="1"/>
-    <col min="23" max="23" width="13.5" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,28 +976,22 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1023,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1038,869 +1017,797 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" s="2">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" s="2">
         <f>ROUND(500/1024,2)</f>
         <v>0.49</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1">
         <f>48/12</f>
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1">
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>127</v>
-      </c>
-      <c r="T4" s="1">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4" s="1">
         <v>2</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F5" s="1">
         <f>252/12</f>
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1">
         <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>127</v>
-      </c>
-      <c r="T5" s="1">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>119</v>
+      </c>
+      <c r="S5" s="1">
         <v>50</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1">
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O6" s="1">
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>127</v>
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>119</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="T6" s="1">
-        <v>2</v>
-      </c>
-      <c r="U6" s="1">
-        <v>10</v>
-      </c>
-      <c r="V6" s="1">
         <v>1</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M7" s="1">
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>5*1000</f>
-        <v>5000</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S7" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" s="1">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f>5*1000&amp;"+(extraUsers*1000)"</f>
+        <v>5000+(extraUsers*1000)</v>
+      </c>
+      <c r="R7" t="s">
+        <v>119</v>
+      </c>
+      <c r="S7" s="1">
         <v>50</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="1">
         <v>1000</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" s="1">
         <v>50</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
+      <c r="T8" s="2">
         <v>0.1</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>127</v>
-      </c>
-      <c r="T9" s="1">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>119</v>
+      </c>
+      <c r="S9" s="1">
         <v>10</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O10" s="1">
         <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" s="2">
-        <v>10</v>
-      </c>
-      <c r="U10" s="2">
-        <v>10</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>119</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O11" s="1">
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>127</v>
-      </c>
-      <c r="T11" s="2">
-        <v>25</v>
-      </c>
-      <c r="U11" s="2">
-        <v>25</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O12" s="1">
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>127</v>
-      </c>
-      <c r="T12" s="2">
-        <v>100</v>
-      </c>
-      <c r="U12" s="2">
-        <v>100</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s">
+        <v>119</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>127</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>119</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M14" s="1">
         <v>5</v>
@@ -1912,280 +1819,256 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>127</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M15" s="1">
         <v>5</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O15" s="1">
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>127</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>119</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M16" s="1">
         <v>5</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O16" s="1">
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>127</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R16" t="s">
+        <v>119</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F17" s="2">
         <v>191.66666666666666</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M17" s="1">
         <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O17" s="1">
         <f>84/12</f>
         <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>127</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R17" t="s">
+        <v>119</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -2197,351 +2080,321 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>127</v>
-      </c>
-      <c r="T18" s="1">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s">
+        <v>119</v>
+      </c>
+      <c r="S18" s="1">
         <v>5</v>
       </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F19" s="1">
         <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O19" s="1">
         <v>19</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>127</v>
-      </c>
-      <c r="T19" s="1">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s">
+        <v>119</v>
+      </c>
+      <c r="S19" s="1">
         <v>50</v>
       </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F20" s="1">
         <v>99</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O20" s="1">
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>127</v>
-      </c>
-      <c r="T20" s="1">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s">
+        <v>119</v>
+      </c>
+      <c r="S20" s="1">
         <v>250</v>
       </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
+      <c r="T20" s="2">
         <f>60/10</f>
         <v>6</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>127</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R21" t="s">
+        <v>119</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
-        <v>127</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s">
+        <v>119</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -2553,67 +2406,61 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>127</v>
-      </c>
-      <c r="T23" s="2">
+      <c r="R23" t="s">
+        <v>119</v>
+      </c>
+      <c r="S23" s="2">
         <f>ROUND(100/1024,2)</f>
         <v>0.1</v>
       </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F24" s="1">
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M24" s="1">
         <v>5</v>
@@ -2625,66 +2472,60 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="1">
         <v>10</v>
       </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>127</v>
-      </c>
-      <c r="T24" s="1">
+      <c r="R24" t="s">
+        <v>119</v>
+      </c>
+      <c r="S24" s="1">
         <v>3</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1">
         <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M25" s="1">
         <v>20</v>
@@ -2696,66 +2537,60 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="1">
         <v>25</v>
       </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>127</v>
-      </c>
-      <c r="T25" s="1">
+      <c r="R25" t="s">
+        <v>119</v>
+      </c>
+      <c r="S25" s="1">
         <v>6</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1">
         <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M26" s="1">
         <v>40</v>
@@ -2767,66 +2602,60 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="1">
         <v>50</v>
       </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>127</v>
-      </c>
-      <c r="T26" s="1">
+      <c r="R26" t="s">
+        <v>119</v>
+      </c>
+      <c r="S26" s="1">
         <v>12</v>
       </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M27" s="1">
         <v>100</v>
@@ -2838,66 +2667,60 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="1">
         <v>120</v>
       </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>127</v>
-      </c>
-      <c r="T27" s="1">
+      <c r="R27" t="s">
+        <v>119</v>
+      </c>
+      <c r="S27" s="1">
         <v>24</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F28" s="1">
         <v>200</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M28" s="1">
         <v>200</v>
@@ -2909,419 +2732,383 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="1">
         <v>300</v>
       </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>127</v>
-      </c>
-      <c r="T28" s="1">
+      <c r="R28" t="s">
+        <v>119</v>
+      </c>
+      <c r="S28" s="1">
         <v>60</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>127</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s">
+        <v>119</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>127</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>119</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
-        <v>127</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s">
+        <v>119</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>127</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s">
+        <v>119</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1">
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>127</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s">
+        <v>119</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M34" s="1">
         <v>2</v>
@@ -3333,67 +3120,61 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="1">
         <v>1</v>
       </c>
-      <c r="R34" s="1">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>127</v>
-      </c>
-      <c r="T34" s="2">
+      <c r="R34" t="s">
+        <v>119</v>
+      </c>
+      <c r="S34" s="2">
         <f>ROUND(100/1024,2)</f>
         <v>0.1</v>
       </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1">
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F35" s="1">
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M35" s="1">
         <v>10</v>
@@ -3405,421 +3186,385 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="1">
         <v>6</v>
       </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-      <c r="S35" t="s">
-        <v>127</v>
-      </c>
-      <c r="T35" s="1">
+      <c r="R35" t="s">
+        <v>119</v>
+      </c>
+      <c r="S35" s="1">
         <v>4</v>
       </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1">
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F36" s="1">
         <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q36" s="1">
         <v>20</v>
       </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" t="s">
-        <v>127</v>
-      </c>
-      <c r="T36" s="1">
+      <c r="R36" t="s">
+        <v>119</v>
+      </c>
+      <c r="S36" s="1">
         <v>8</v>
       </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1">
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F37" s="1">
         <v>35</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q37" s="1">
         <v>45</v>
       </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" t="s">
-        <v>127</v>
-      </c>
-      <c r="T37" s="1">
+      <c r="R37" t="s">
+        <v>119</v>
+      </c>
+      <c r="S37" s="1">
         <v>14</v>
       </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1">
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F38" s="1">
         <v>75</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O38" s="1">
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q38" s="1">
         <v>110</v>
       </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" t="s">
-        <v>127</v>
-      </c>
-      <c r="T38" s="1">
+      <c r="R38" t="s">
+        <v>119</v>
+      </c>
+      <c r="S38" s="1">
         <v>30</v>
       </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1">
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F39" s="1">
         <v>150</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q39" s="1">
         <v>230</v>
       </c>
-      <c r="R39" s="1">
-        <v>0</v>
-      </c>
-      <c r="S39" t="s">
-        <v>127</v>
-      </c>
-      <c r="T39" s="1">
+      <c r="R39" t="s">
+        <v>119</v>
+      </c>
+      <c r="S39" s="1">
         <v>70</v>
       </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1">
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O40" s="1">
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R40" s="3">
-        <v>0</v>
-      </c>
-      <c r="S40" t="s">
-        <v>127</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R40" t="s">
+        <v>119</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D41" s="1">
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F41" s="1">
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -3831,138 +3576,126 @@
         <v>12</v>
       </c>
       <c r="P41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0</v>
-      </c>
-      <c r="S41" t="s">
-        <v>127</v>
-      </c>
-      <c r="T41" s="1">
+        <v>37</v>
+      </c>
+      <c r="R41" t="s">
+        <v>119</v>
+      </c>
+      <c r="S41" s="1">
         <v>5</v>
       </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1">
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1">
         <f>5*19</f>
         <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M42" s="1">
         <v>5</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O42" s="1">
         <v>19</v>
       </c>
       <c r="P42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R42" s="1">
-        <v>0</v>
-      </c>
-      <c r="S42" t="s">
-        <v>127</v>
-      </c>
-      <c r="T42" s="1">
+        <v>37</v>
+      </c>
+      <c r="R42" t="s">
+        <v>119</v>
+      </c>
+      <c r="S42" s="1">
         <v>500</v>
       </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D43" s="1">
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F43" s="1">
         <v>52.25</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -3974,28 +3707,22 @@
         <v>52.25</v>
       </c>
       <c r="P43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0</v>
-      </c>
-      <c r="S43" t="s">
-        <v>127</v>
-      </c>
-      <c r="T43" s="1">
+        <v>37</v>
+      </c>
+      <c r="R43" t="s">
+        <v>119</v>
+      </c>
+      <c r="S43" s="1">
         <v>1000</v>
       </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>49</v>
+      <c r="T43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/lib/excels/VC_Comps.xlsx
+++ b/src/lib/excels/VC_Comps.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA9C1A9-F3BF-6647-B05A-7090AA17596A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79991468-0328-F94C-8A75-AC82E1F18B60}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B0781A11-2AB5-154E-94CA-C5BB8D9F3C92}"/>
+    <workbookView xWindow="38720" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B0781A11-2AB5-154E-94CA-C5BB8D9F3C92}"/>
   </bookViews>
   <sheets>
     <sheet name="VCs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="128">
   <si>
     <t>Brand</t>
   </si>
@@ -591,10 +591,10 @@
     <tableColumn id="10" xr3:uid="{ECD68C8E-4269-464E-A0B3-415F61071719}" name="PriceExtraUser$" dataDxfId="5"/>
     <tableColumn id="24" xr3:uid="{210BB43B-6F9F-0B44-A6E0-96FA71E4D12B}" name="FinalNRepos" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{6F08C059-DEAB-8B4C-B547-0A0C17E0C409}" name="NPrivateReposFormula"/>
-    <tableColumn id="13" xr3:uid="{77A95219-F85F-A04B-9505-8FCC06CF2E13}" name="FinalDiskSpace" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{5715783A-23BB-3B4C-AA46-D3B153BF2A64}" name="DiskSpaceGBFormula" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{E6907AB6-1173-6B4A-9BD5-FC4C337ADCB1}" name="PriceExtraGBDiskSpace" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{F7440A6F-BDB4-614F-918B-5C4E66379441}" name="CommercialSupport" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{77A95219-F85F-A04B-9505-8FCC06CF2E13}" name="FinalDiskSpace" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{5715783A-23BB-3B4C-AA46-D3B153BF2A64}" name="DiskSpaceGBFormula" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E6907AB6-1173-6B4A-9BD5-FC4C337ADCB1}" name="PriceExtraGBDiskSpace" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{F7440A6F-BDB4-614F-918B-5C4E66379441}" name="CommercialSupport" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -900,7 +900,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,9 +1108,8 @@
       <c r="R3" t="s">
         <v>119</v>
       </c>
-      <c r="S3" s="2">
-        <f>ROUND(500/1024,2)</f>
-        <v>0.49</v>
+      <c r="S3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>38</v>
@@ -1175,8 +1174,8 @@
       <c r="R4" t="s">
         <v>119</v>
       </c>
-      <c r="S4" s="1">
-        <v>2</v>
+      <c r="S4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>38</v>
@@ -1241,8 +1240,8 @@
       <c r="R5" t="s">
         <v>119</v>
       </c>
-      <c r="S5" s="1">
-        <v>50</v>
+      <c r="S5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>38</v>

--- a/src/lib/excels/VC_Comps.xlsx
+++ b/src/lib/excels/VC_Comps.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79991468-0328-F94C-8A75-AC82E1F18B60}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D17A24E-76A6-A841-AEFC-9330B4A7A4B0}"/>
   <bookViews>
-    <workbookView xWindow="38720" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B0781A11-2AB5-154E-94CA-C5BB8D9F3C92}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B0781A11-2AB5-154E-94CA-C5BB8D9F3C92}"/>
   </bookViews>
   <sheets>
     <sheet name="VCs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="128">
   <si>
     <t>Brand</t>
   </si>
@@ -900,7 +900,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2963,7 +2963,9 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>36</v>
       </c>

--- a/src/lib/excels/VC_Comps.xlsx
+++ b/src/lib/excels/VC_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D17A24E-76A6-A841-AEFC-9330B4A7A4B0}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C689DB7F-35C8-BC4D-85C6-76DE78300536}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B0781A11-2AB5-154E-94CA-C5BB8D9F3C92}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>CommercialSupport</t>
   </si>
   <si>
-    <t>Final Price</t>
-  </si>
-  <si>
     <t>Base Cost</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t>Disk Space Included Formula</t>
+  </si>
+  <si>
+    <t>Final Price $</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R1" t="s">
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
         <v>17</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1017,424 +1017,424 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
-        <v>127</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1">
         <f>48/12</f>
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1">
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1">
         <f>252/12</f>
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="1">
         <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1">
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" s="1">
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T6" s="1">
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="1">
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="1" t="str">
         <f>5*1000&amp;"+(extraUsers*1000)"</f>
         <v>5000+(extraUsers*1000)</v>
       </c>
       <c r="R7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S7" s="1">
         <v>50</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="1">
         <v>1000</v>
       </c>
       <c r="R8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S8" s="1">
         <v>50</v>
@@ -1443,370 +1443,370 @@
         <v>0.1</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S9" s="1">
         <v>10</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" s="1">
         <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11" s="1">
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1">
         <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="1">
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="1">
         <v>5</v>
@@ -1818,256 +1818,256 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="1">
         <v>5</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O15" s="1">
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16" s="1">
         <v>5</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O16" s="1">
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="2">
         <v>191.66666666666666</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17" s="1">
         <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O17" s="1">
         <f>84/12</f>
         <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -2079,143 +2079,143 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S18" s="1">
         <v>5</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D19" s="1">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1">
         <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O19" s="1">
         <v>19</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S19" s="1">
         <v>50</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="1">
         <v>99</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O20" s="1">
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S20" s="1">
         <v>250</v>
@@ -2225,175 +2225,175 @@
         <v>6</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D23" s="1">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
@@ -2405,61 +2405,61 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S23" s="2">
         <f>ROUND(100/1024,2)</f>
         <v>0.1</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D24" s="1">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1">
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M24" s="1">
         <v>5</v>
@@ -2471,60 +2471,60 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="1">
         <v>10</v>
       </c>
       <c r="R24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S24" s="1">
         <v>3</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="1">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="1">
         <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25" s="1">
         <v>20</v>
@@ -2536,60 +2536,60 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="1">
         <v>25</v>
       </c>
       <c r="R25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S25" s="1">
         <v>6</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D26" s="1">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1">
         <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="1">
         <v>40</v>
@@ -2601,60 +2601,60 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="1">
         <v>50</v>
       </c>
       <c r="R26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S26" s="1">
         <v>12</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="1">
         <v>100</v>
@@ -2666,60 +2666,60 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q27" s="1">
         <v>120</v>
       </c>
       <c r="R27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S27" s="1">
         <v>24</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="1">
         <v>200</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="1">
         <v>200</v>
@@ -2731,385 +2731,385 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q28" s="1">
         <v>300</v>
       </c>
       <c r="R28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S28" s="1">
         <v>60</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D29" s="1">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
         <v>91</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
         <v>94</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D33" s="1">
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34" s="1">
         <v>2</v>
@@ -3121,61 +3121,61 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q34" s="1">
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S34" s="2">
         <f>ROUND(100/1024,2)</f>
         <v>0.1</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D35" s="1">
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1">
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M35" s="1">
         <v>10</v>
@@ -3187,385 +3187,385 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q35" s="1">
         <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S35" s="1">
         <v>4</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D36" s="1">
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" s="1">
         <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q36" s="1">
         <v>20</v>
       </c>
       <c r="R36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S36" s="1">
         <v>8</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="1">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="1">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="1">
-        <v>35</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q37" s="1">
         <v>45</v>
       </c>
       <c r="R37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S37" s="1">
         <v>14</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D38" s="1">
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="1">
         <v>75</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O38" s="1">
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q38" s="1">
         <v>110</v>
       </c>
       <c r="R38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S38" s="1">
         <v>30</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D39" s="1">
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="1">
         <v>150</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q39" s="1">
         <v>230</v>
       </c>
       <c r="R39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S39" s="1">
         <v>70</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
         <v>110</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
       </c>
       <c r="D40" s="1">
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O40" s="1">
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D41" s="1">
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="1">
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -3577,126 +3577,126 @@
         <v>12</v>
       </c>
       <c r="P41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S41" s="1">
         <v>5</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1">
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42" s="1">
         <f>5*19</f>
         <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M42" s="1">
         <v>5</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O42" s="1">
         <v>19</v>
       </c>
       <c r="P42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S42" s="1">
         <v>500</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1">
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="1">
         <v>52.25</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M43" s="1">
         <v>1</v>
@@ -3708,22 +3708,22 @@
         <v>52.25</v>
       </c>
       <c r="P43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S43" s="1">
         <v>1000</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/lib/excels/VC_Comps.xlsx
+++ b/src/lib/excels/VC_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C689DB7F-35C8-BC4D-85C6-76DE78300536}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{31C6C83E-0A51-48C1-9CB2-CB7FBB7F65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D63E75B-46C8-F943-B6EF-69B76F355A9E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B0781A11-2AB5-154E-94CA-C5BB8D9F3C92}"/>
   </bookViews>
@@ -414,7 +414,7 @@
     <t>Disk Space Included Formula</t>
   </si>
   <si>
-    <t>Final Price $</t>
+    <t>Monthly Price $</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/lib/excels/VC_Comps.xlsx
+++ b/src/lib/excels/VC_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC2D3F8-F6C2-1F4A-A253-B4858B92A7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE22BF-119B-6345-AC71-D4095FB07F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B0781A11-2AB5-154E-94CA-C5BB8D9F3C92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="149">
   <si>
     <t>Brand</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>Commercial Support MCDM</t>
+  </si>
+  <si>
+    <t>mcdm_ExtrasIncluded</t>
+  </si>
+  <si>
+    <t>Extras Included MCDM</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -670,39 +679,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{849EBF7C-AD1D-EE43-8D1B-02B9ABB26E3A}" name="Table1" displayName="Table1" ref="A1:AD43" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="A1:AD43" xr:uid="{849EBF7C-AD1D-EE43-8D1B-02B9ABB26E3A}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{8E01959E-A842-C74F-AE57-5DDD0989A6E2}" name="Brand" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{9D4B6E44-8C12-3047-899D-F05AE68B781E}" name="Service" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{EF974245-B75B-A24C-BEA6-345371A998E0}" name="desc_Service" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{2F338ADC-DFD7-D14D-9D52-D4B3C0495223}" name="colID" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{5D9A2FB4-4A19-744C-96CA-465FB8505C95}" name="CalculatedCost" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{47FF9E4C-10AF-144D-97F1-3833F1E9E860}" name="LicenseCost$PerMonth" dataDxfId="23"/>
-    <tableColumn id="30" xr3:uid="{E9E20F10-E671-194A-8ED1-94C05C6007EC}" name="mcdm_Rank" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{72F75287-8FED-FA4D-919A-D41BD1679788}" name="ExtrasIncluded" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{243EEEB3-33AF-7945-A473-672ED0D2BBFF}" name="Self-hosted" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{8471C54A-653F-AD46-8E15-7637ADC84B1F}" name="Issues" dataDxfId="19"/>
-    <tableColumn id="29" xr3:uid="{F016DC6D-1418-7746-9F53-B0C79B88BA5C}" name="mcdm_Issues" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{DF9F8897-F0FC-E24F-9E2D-83D28F1CDE4D}" name="Kanban" dataDxfId="17"/>
-    <tableColumn id="28" xr3:uid="{10015C46-F089-4E4B-893D-FCAB490AC82F}" name="mcdm_Kanban" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{FDA29895-2310-1E4B-AAC9-97D97CBF4648}" name="Wiki" dataDxfId="15"/>
-    <tableColumn id="27" xr3:uid="{6741CFB7-E80E-EF4F-8D55-A2E8C24F71E5}" name="mcdm_Wiki" dataDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{8708C288-A63C-6C4A-92A5-C440C76F6BF2}" name="PackageRegistry" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{BEF423A2-490C-A449-8F7D-1F07AFF988AE}" name="mcdm_PackageRegistry" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{BB74161C-CD38-3249-9310-611A50F2182D}" name="IncludedUsers" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{8BD2E13A-BAA4-7949-BABF-8C9FDECD6087}" name="MaxUsers" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{ECD68C8E-4269-464E-A0B3-415F61071719}" name="PriceExtraUser$" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{CDF54FD0-65AB-AC48-89F1-FDBD516345DB}" name="mcdm_NUsers" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{210BB43B-6F9F-0B44-A6E0-96FA71E4D12B}" name="FinalNRepos" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{849EBF7C-AD1D-EE43-8D1B-02B9ABB26E3A}" name="Table1" displayName="Table1" ref="A1:AE43" totalsRowShown="0" dataDxfId="30">
+  <autoFilter ref="A1:AE43" xr:uid="{849EBF7C-AD1D-EE43-8D1B-02B9ABB26E3A}"/>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{8E01959E-A842-C74F-AE57-5DDD0989A6E2}" name="Brand" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{9D4B6E44-8C12-3047-899D-F05AE68B781E}" name="Service" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{EF974245-B75B-A24C-BEA6-345371A998E0}" name="desc_Service" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{2F338ADC-DFD7-D14D-9D52-D4B3C0495223}" name="colID" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{5D9A2FB4-4A19-744C-96CA-465FB8505C95}" name="CalculatedCost" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{47FF9E4C-10AF-144D-97F1-3833F1E9E860}" name="LicenseCost$PerMonth" dataDxfId="24"/>
+    <tableColumn id="30" xr3:uid="{E9E20F10-E671-194A-8ED1-94C05C6007EC}" name="mcdm_Rank" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{72F75287-8FED-FA4D-919A-D41BD1679788}" name="ExtrasIncluded" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{B956E79A-EC31-FE4C-B325-7E7B2F3D0D30}" name="mcdm_ExtrasIncluded" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{243EEEB3-33AF-7945-A473-672ED0D2BBFF}" name="Self-hosted" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{8471C54A-653F-AD46-8E15-7637ADC84B1F}" name="Issues" dataDxfId="20"/>
+    <tableColumn id="29" xr3:uid="{F016DC6D-1418-7746-9F53-B0C79B88BA5C}" name="mcdm_Issues" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{DF9F8897-F0FC-E24F-9E2D-83D28F1CDE4D}" name="Kanban" dataDxfId="18"/>
+    <tableColumn id="28" xr3:uid="{10015C46-F089-4E4B-893D-FCAB490AC82F}" name="mcdm_Kanban" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{FDA29895-2310-1E4B-AAC9-97D97CBF4648}" name="Wiki" dataDxfId="16"/>
+    <tableColumn id="27" xr3:uid="{6741CFB7-E80E-EF4F-8D55-A2E8C24F71E5}" name="mcdm_Wiki" dataDxfId="15"/>
+    <tableColumn id="22" xr3:uid="{8708C288-A63C-6C4A-92A5-C440C76F6BF2}" name="PackageRegistry" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{BEF423A2-490C-A449-8F7D-1F07AFF988AE}" name="mcdm_PackageRegistry" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{BB74161C-CD38-3249-9310-611A50F2182D}" name="IncludedUsers" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{8BD2E13A-BAA4-7949-BABF-8C9FDECD6087}" name="MaxUsers" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{ECD68C8E-4269-464E-A0B3-415F61071719}" name="PriceExtraUser$" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{CDF54FD0-65AB-AC48-89F1-FDBD516345DB}" name="mcdm_NUsers" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{210BB43B-6F9F-0B44-A6E0-96FA71E4D12B}" name="FinalNRepos" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{6F08C059-DEAB-8B4C-B547-0A0C17E0C409}" name="NPrivateReposFormula"/>
-    <tableColumn id="17" xr3:uid="{41661D7D-3521-454C-BE2E-CAFFD56ADE60}" name="mcdm_NPrivateRepos" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{77A95219-F85F-A04B-9505-8FCC06CF2E13}" name="FinalDiskSpace" dataDxfId="5"/>
-    <tableColumn id="25" xr3:uid="{5715783A-23BB-3B4C-AA46-D3B153BF2A64}" name="DiskSpaceGBFormula" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{E6907AB6-1173-6B4A-9BD5-FC4C337ADCB1}" name="PriceExtraGBDiskSpace" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{097EB15D-C227-1845-8E01-20654FD75813}" name="mcdm_DiskSpace" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{F7440A6F-BDB4-614F-918B-5C4E66379441}" name="CommercialSupport" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{65D10F7F-8FE3-4A4A-A848-882F1C4D9918}" name="mcdm_Support" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{41661D7D-3521-454C-BE2E-CAFFD56ADE60}" name="mcdm_NPrivateRepos" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{77A95219-F85F-A04B-9505-8FCC06CF2E13}" name="FinalDiskSpace" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{5715783A-23BB-3B4C-AA46-D3B153BF2A64}" name="DiskSpaceGBFormula" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{E6907AB6-1173-6B4A-9BD5-FC4C337ADCB1}" name="PriceExtraGBDiskSpace" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{097EB15D-C227-1845-8E01-20654FD75813}" name="mcdm_DiskSpace" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{F7440A6F-BDB4-614F-918B-5C4E66379441}" name="CommercialSupport" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{65D10F7F-8FE3-4A4A-A848-882F1C4D9918}" name="mcdm_Support" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1005,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C078D323-4F89-A64F-AD37-C75ADCE8B739}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,24 +1030,24 @@
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="15" width="8.1640625" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
-    <col min="23" max="24" width="9.33203125" customWidth="1"/>
-    <col min="25" max="26" width="16" customWidth="1"/>
-    <col min="27" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="29" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.1640625" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="24" max="25" width="9.33203125" customWidth="1"/>
+    <col min="26" max="27" width="16" customWidth="1"/>
+    <col min="28" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,73 +1073,76 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>132</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1152,73 +1165,76 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>138</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>139</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>140</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>141</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>125</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>145</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1243,74 +1259,77 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
+      <c r="I3" s="1">
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U3" s="1">
-        <v>4</v>
-      </c>
-      <c r="V3" t="s">
-        <v>117</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="1">
+      <c r="AC3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1336,74 +1355,77 @@
       <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="1">
-        <v>4</v>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1">
         <v>3</v>
       </c>
-      <c r="V4" t="s">
-        <v>117</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="2" t="s">
+      <c r="W4" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="1">
+      <c r="AC4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1429,74 +1451,77 @@
       <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="1">
         <v>21</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>3</v>
       </c>
-      <c r="V5" t="s">
-        <v>117</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5" s="2" t="s">
+      <c r="W5" t="s">
+        <v>117</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1521,74 +1546,77 @@
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
         <v>5</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="1">
+      <c r="T6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="1">
         <v>6</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>3</v>
       </c>
-      <c r="V6" t="s">
-        <v>117</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z6" s="1" t="s">
+      <c r="W6" t="s">
+        <v>117</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
         <v>3</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1613,75 +1641,78 @@
       <c r="H7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
         <v>5</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
+      <c r="T7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
         <v>3</v>
       </c>
-      <c r="V7" t="s">
-        <v>117</v>
-      </c>
-      <c r="W7" s="1" t="str">
+      <c r="W7" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7" s="1" t="str">
         <f>5*1000&amp;"+(extraUsers*1000)"</f>
         <v>5000+(extraUsers*1000)</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>3</v>
       </c>
-      <c r="Y7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="Z7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" s="1">
         <v>50</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AC7" s="4">
         <v>2</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1706,74 +1737,77 @@
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>33</v>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
         <v>5</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
+      <c r="T8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
         <v>3</v>
       </c>
-      <c r="V8" t="s">
-        <v>117</v>
-      </c>
-      <c r="W8" s="1">
+      <c r="W8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X8" s="1">
         <v>1000</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>2</v>
       </c>
-      <c r="Y8" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z8" s="1">
+      <c r="Z8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA8" s="1">
         <v>50</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>0.1</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AC8" s="4">
         <v>3</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1798,74 +1832,77 @@
       <c r="H9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>33</v>
+      <c r="I9" s="1">
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="1">
-        <v>0</v>
+      <c r="T9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U9" s="1">
-        <v>4</v>
-      </c>
-      <c r="V9" t="s">
-        <v>117</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA9" s="1">
         <v>10</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AC9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1890,74 +1927,77 @@
       <c r="H10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="1">
         <v>8</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>3</v>
       </c>
-      <c r="V10" t="s">
-        <v>117</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z10" s="2" t="s">
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AC10" s="4">
         <v>3</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AE10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1982,74 +2022,77 @@
       <c r="H11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="1">
         <v>20</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>3</v>
       </c>
-      <c r="V11" t="s">
-        <v>117</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z11" s="2" t="s">
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AC11" s="4">
         <v>3</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AE11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -2074,74 +2117,77 @@
       <c r="H12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>33</v>
+      <c r="I12" s="1">
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R12" s="1">
         <v>1</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="1">
         <v>99</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>3</v>
       </c>
-      <c r="V12" t="s">
-        <v>117</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z12" s="2" t="s">
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AC12" s="4">
         <v>3</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -2166,74 +2212,77 @@
       <c r="H13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>34</v>
+      <c r="I13" s="1">
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>35</v>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="1">
-        <v>0</v>
+      <c r="T13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U13" s="1">
-        <v>4</v>
-      </c>
-      <c r="V13" t="s">
-        <v>117</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X13" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB13" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -2258,74 +2307,77 @@
       <c r="H14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
+      <c r="I14" s="1">
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R14" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>5</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
         <v>2</v>
       </c>
-      <c r="V14" t="s">
-        <v>117</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA14" s="2" t="s">
+      <c r="W14" t="s">
+        <v>117</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB14" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD14" s="1">
+      <c r="AC14" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -2350,74 +2402,77 @@
       <c r="H15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>33</v>
+      <c r="I15" s="1">
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
         <v>5</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="1">
-        <v>3</v>
+      <c r="T15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="U15" s="1">
         <v>3</v>
       </c>
-      <c r="V15" t="s">
-        <v>117</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X15" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA15" s="2" t="s">
+      <c r="V15" s="1">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>117</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB15" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD15" s="1">
+      <c r="AC15" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2442,74 +2497,77 @@
       <c r="H16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
+      <c r="I16" s="1">
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
         <v>5</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="1">
+      <c r="T16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="1">
         <v>6</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>3</v>
       </c>
-      <c r="V16" t="s">
-        <v>117</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X16" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA16" s="2" t="s">
+      <c r="W16" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB16" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AC16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -2534,75 +2592,78 @@
       <c r="H17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>34</v>
+      <c r="I17" s="1">
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>1</v>
+      <c r="K17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
         <v>25</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="1">
+      <c r="T17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="1">
         <f>84/12</f>
         <v>7</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>3</v>
       </c>
-      <c r="V17" t="s">
-        <v>117</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X17" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA17" s="2" t="s">
+      <c r="W17" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB17" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AC17" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -2627,72 +2688,75 @@
       <c r="H18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1</v>
+      <c r="K18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
       </c>
       <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
         <v>5</v>
       </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
       <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
         <v>2</v>
       </c>
-      <c r="V18" t="s">
-        <v>117</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X18" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z18" s="1">
+      <c r="W18" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA18" s="1">
         <v>5</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD18" s="1"/>
+      <c r="AC18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2717,74 +2781,77 @@
       <c r="H19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1</v>
+      <c r="K19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="1">
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="1">
         <v>19</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>3</v>
       </c>
-      <c r="V19" t="s">
-        <v>117</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X19" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z19" s="1">
+      <c r="W19" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA19" s="1">
         <v>50</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AC19" s="4">
         <v>2</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AE19" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -2809,75 +2876,78 @@
       <c r="H20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>1</v>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" s="1">
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="1">
         <v>99</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>3</v>
       </c>
-      <c r="V20" t="s">
-        <v>117</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X20" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z20" s="1">
+      <c r="W20" t="s">
+        <v>117</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA20" s="1">
         <v>250</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AB20" s="2">
         <f>60/10</f>
         <v>6</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AC20" s="4">
         <v>3</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AE20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2902,74 +2972,77 @@
       <c r="H21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>34</v>
+      <c r="I21" s="1">
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>35</v>
+      <c r="K21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="1">
-        <v>0</v>
+      <c r="T21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U21" s="1">
-        <v>4</v>
-      </c>
-      <c r="V21" t="s">
-        <v>117</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X21" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4</v>
+      </c>
+      <c r="W21" t="s">
+        <v>117</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB21" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD21" s="1">
+      <c r="AC21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -2994,74 +3067,77 @@
       <c r="H22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>34</v>
+      <c r="I22" s="1">
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>1</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>35</v>
+      <c r="K22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="1">
-        <v>0</v>
+      <c r="T22" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U22" s="1">
-        <v>4</v>
-      </c>
-      <c r="V22" t="s">
-        <v>117</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X22" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4</v>
+      </c>
+      <c r="W22" t="s">
+        <v>117</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB22" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD22" s="1">
+      <c r="AC22" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -3086,75 +3162,78 @@
       <c r="H23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>33</v>
+      <c r="I23" s="1">
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
         <v>1</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
       </c>
-      <c r="V23" t="s">
-        <v>117</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1</v>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>117</v>
       </c>
       <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA23" s="2">
         <f>ROUND(100/1024,2)</f>
         <v>0.1</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AB23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD23" s="1">
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -3179,74 +3258,77 @@
       <c r="H24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>33</v>
+      <c r="I24" s="1">
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
         <v>5</v>
       </c>
       <c r="T24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
         <v>2</v>
       </c>
-      <c r="V24" t="s">
-        <v>117</v>
-      </c>
-      <c r="W24" s="1">
+      <c r="W24" t="s">
+        <v>117</v>
+      </c>
+      <c r="X24" s="1">
         <v>10</v>
       </c>
-      <c r="X24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z24" s="1">
+      <c r="Y24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA24" s="1">
         <v>3</v>
       </c>
-      <c r="AA24" s="2" t="s">
+      <c r="AB24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD24" s="1">
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3271,74 +3353,77 @@
       <c r="H25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>33</v>
+      <c r="I25" s="1">
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R25" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
         <v>20</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
         <v>2</v>
       </c>
-      <c r="V25" t="s">
-        <v>117</v>
-      </c>
-      <c r="W25" s="1">
+      <c r="W25" t="s">
+        <v>117</v>
+      </c>
+      <c r="X25" s="1">
         <v>25</v>
       </c>
-      <c r="X25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z25" s="1">
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA25" s="1">
         <v>6</v>
       </c>
-      <c r="AA25" s="2" t="s">
+      <c r="AB25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD25" s="1">
+      <c r="AC25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3363,74 +3448,77 @@
       <c r="H26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>33</v>
+      <c r="I26" s="1">
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R26" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1">
         <v>40</v>
       </c>
       <c r="T26" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
         <v>2</v>
       </c>
-      <c r="V26" t="s">
-        <v>117</v>
-      </c>
-      <c r="W26" s="1">
+      <c r="W26" t="s">
+        <v>117</v>
+      </c>
+      <c r="X26" s="1">
         <v>50</v>
       </c>
-      <c r="X26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z26" s="1">
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA26" s="1">
         <v>12</v>
       </c>
-      <c r="AA26" s="2" t="s">
+      <c r="AB26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD26" s="1">
+      <c r="AC26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -3455,74 +3543,77 @@
       <c r="H27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>33</v>
+      <c r="I27" s="1">
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
         <v>100</v>
       </c>
       <c r="T27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="1">
-        <v>4</v>
-      </c>
-      <c r="V27" t="s">
-        <v>117</v>
-      </c>
-      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>4</v>
+      </c>
+      <c r="W27" t="s">
+        <v>117</v>
+      </c>
+      <c r="X27" s="1">
         <v>120</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>2</v>
       </c>
-      <c r="Y27" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z27" s="1">
+      <c r="Z27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA27" s="1">
         <v>24</v>
       </c>
-      <c r="AA27" s="2" t="s">
+      <c r="AB27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD27" s="1">
+      <c r="AC27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -3547,74 +3638,77 @@
       <c r="H28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>33</v>
+      <c r="I28" s="1">
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R28" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
         <v>200</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U28" s="1">
-        <v>4</v>
-      </c>
-      <c r="V28" t="s">
-        <v>117</v>
-      </c>
-      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>4</v>
+      </c>
+      <c r="W28" t="s">
+        <v>117</v>
+      </c>
+      <c r="X28" s="1">
         <v>300</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Y28" s="1">
         <v>2</v>
       </c>
-      <c r="Y28" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z28" s="1">
+      <c r="Z28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA28" s="1">
         <v>60</v>
       </c>
-      <c r="AA28" s="2" t="s">
+      <c r="AB28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB28" s="4">
+      <c r="AC28" s="4">
         <v>2</v>
       </c>
-      <c r="AC28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD28" s="1">
+      <c r="AD28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -3639,74 +3733,77 @@
       <c r="H29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>34</v>
+      <c r="I29" s="1">
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>35</v>
+      <c r="K29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T29" s="1">
-        <v>0</v>
+      <c r="T29" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U29" s="1">
-        <v>4</v>
-      </c>
-      <c r="V29" t="s">
-        <v>117</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X29" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>4</v>
+      </c>
+      <c r="W29" t="s">
+        <v>117</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB29" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD29" s="1">
+      <c r="AC29" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -3731,74 +3828,77 @@
       <c r="H30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>34</v>
+      <c r="I30" s="1">
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>35</v>
+      <c r="K30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T30" s="1">
-        <v>0</v>
+      <c r="T30" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U30" s="1">
-        <v>4</v>
-      </c>
-      <c r="V30" t="s">
-        <v>117</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X30" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>4</v>
+      </c>
+      <c r="W30" t="s">
+        <v>117</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB30" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD30" s="1">
+      <c r="AC30" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -3823,74 +3923,77 @@
       <c r="H31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>34</v>
+      <c r="I31" s="1">
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>35</v>
+      <c r="K31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T31" s="1">
-        <v>0</v>
+      <c r="T31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U31" s="1">
-        <v>4</v>
-      </c>
-      <c r="V31" t="s">
-        <v>117</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X31" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>4</v>
+      </c>
+      <c r="W31" t="s">
+        <v>117</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB31" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD31" s="1">
+      <c r="AC31" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3915,74 +4018,77 @@
       <c r="H32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>34</v>
+      <c r="I32" s="1">
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T32" s="1">
-        <v>0</v>
+      <c r="T32" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U32" s="1">
-        <v>4</v>
-      </c>
-      <c r="V32" t="s">
-        <v>117</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X32" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>4</v>
+      </c>
+      <c r="W32" t="s">
+        <v>117</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB32" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD32" s="1">
+      <c r="AC32" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -4007,74 +4113,77 @@
       <c r="H33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>34</v>
+      <c r="I33" s="1">
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>35</v>
+      <c r="K33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T33" s="1">
-        <v>0</v>
+      <c r="T33" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U33" s="1">
-        <v>4</v>
-      </c>
-      <c r="V33" t="s">
-        <v>117</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X33" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>4</v>
+      </c>
+      <c r="W33" t="s">
+        <v>117</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB33" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD33" s="1">
+      <c r="AC33" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -4099,75 +4208,78 @@
       <c r="H34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>33</v>
+      <c r="I34" s="1">
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1">
         <v>2</v>
       </c>
       <c r="T34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
         <v>2</v>
       </c>
-      <c r="V34" t="s">
-        <v>117</v>
-      </c>
-      <c r="W34" s="1">
-        <v>1</v>
+      <c r="W34" t="s">
+        <v>117</v>
       </c>
       <c r="X34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA34" s="2">
         <f>ROUND(100/1024,2)</f>
         <v>0.1</v>
       </c>
-      <c r="AA34" s="2" t="s">
+      <c r="AB34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD34" s="1">
+      <c r="AC34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -4192,74 +4304,77 @@
       <c r="H35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>33</v>
+      <c r="I35" s="1">
+        <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R35" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
         <v>10</v>
       </c>
       <c r="T35" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
         <v>2</v>
       </c>
-      <c r="V35" t="s">
-        <v>117</v>
-      </c>
-      <c r="W35" s="1">
+      <c r="W35" t="s">
+        <v>117</v>
+      </c>
+      <c r="X35" s="1">
         <v>6</v>
       </c>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="2" t="s">
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AC35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD35" s="1">
+      <c r="AE35" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
@@ -4284,74 +4399,77 @@
       <c r="H36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>33</v>
+      <c r="I36" s="1">
+        <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T36" s="1">
-        <v>0</v>
+      <c r="T36" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U36" s="1">
-        <v>4</v>
-      </c>
-      <c r="V36" t="s">
-        <v>117</v>
-      </c>
-      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>4</v>
+      </c>
+      <c r="W36" t="s">
+        <v>117</v>
+      </c>
+      <c r="X36" s="1">
         <v>20</v>
       </c>
-      <c r="X36" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z36" s="1">
+      <c r="Y36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA36" s="1">
         <v>8</v>
       </c>
-      <c r="AA36" s="2" t="s">
+      <c r="AB36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AC36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD36" s="1">
+      <c r="AE36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -4376,74 +4494,77 @@
       <c r="H37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>33</v>
+      <c r="I37" s="1">
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O37" s="1">
-        <v>1</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T37" s="1">
-        <v>0</v>
+      <c r="T37" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U37" s="1">
-        <v>4</v>
-      </c>
-      <c r="V37" t="s">
-        <v>117</v>
-      </c>
-      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>4</v>
+      </c>
+      <c r="W37" t="s">
+        <v>117</v>
+      </c>
+      <c r="X37" s="1">
         <v>45</v>
       </c>
-      <c r="X37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z37" s="1">
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA37" s="1">
         <v>14</v>
       </c>
-      <c r="AA37" s="2" t="s">
+      <c r="AB37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AC37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD37" s="1">
+      <c r="AE37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
@@ -4468,74 +4589,77 @@
       <c r="H38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>33</v>
+      <c r="I38" s="1">
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T38" s="1">
-        <v>0</v>
+      <c r="T38" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U38" s="1">
-        <v>4</v>
-      </c>
-      <c r="V38" t="s">
-        <v>117</v>
-      </c>
-      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>4</v>
+      </c>
+      <c r="W38" t="s">
+        <v>117</v>
+      </c>
+      <c r="X38" s="1">
         <v>110</v>
       </c>
-      <c r="X38" s="1">
+      <c r="Y38" s="1">
         <v>2</v>
       </c>
-      <c r="Y38" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z38" s="1">
+      <c r="Z38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA38" s="1">
         <v>30</v>
       </c>
-      <c r="AA38" s="2" t="s">
+      <c r="AB38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB38" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AC38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AE38" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
@@ -4560,74 +4684,77 @@
       <c r="H39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>33</v>
+      <c r="I39" s="1">
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T39" s="1">
-        <v>0</v>
+      <c r="T39" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U39" s="1">
-        <v>4</v>
-      </c>
-      <c r="V39" t="s">
-        <v>117</v>
-      </c>
-      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>4</v>
+      </c>
+      <c r="W39" t="s">
+        <v>117</v>
+      </c>
+      <c r="X39" s="1">
         <v>230</v>
       </c>
-      <c r="X39" s="1">
+      <c r="Y39" s="1">
         <v>2</v>
       </c>
-      <c r="Y39" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z39" s="1">
+      <c r="Z39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA39" s="1">
         <v>70</v>
       </c>
-      <c r="AA39" s="2" t="s">
+      <c r="AB39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB39" s="4">
+      <c r="AC39" s="4">
         <v>2</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AD39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AE39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -4652,74 +4779,77 @@
       <c r="H40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>34</v>
+      <c r="I40" s="1">
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>35</v>
+      <c r="K40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T40" s="1">
-        <v>0</v>
+      <c r="T40" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U40" s="1">
-        <v>4</v>
-      </c>
-      <c r="V40" t="s">
-        <v>117</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X40" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>4</v>
+      </c>
+      <c r="W40" t="s">
+        <v>117</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB40" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD40" s="1">
+      <c r="AC40" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -4744,74 +4874,77 @@
       <c r="H41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>33</v>
+      <c r="I41" s="1">
+        <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
         <v>5</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
         <v>12</v>
       </c>
-      <c r="U41" s="1">
-        <v>1</v>
-      </c>
-      <c r="V41" t="s">
-        <v>117</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X41" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z41" s="1">
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>117</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA41" s="1">
         <v>5</v>
       </c>
-      <c r="AA41" s="2" t="s">
+      <c r="AB41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AC41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AE41" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
@@ -4837,74 +4970,77 @@
       <c r="H42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>33</v>
+      <c r="I42" s="1">
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
         <v>5</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T42" s="1">
+      <c r="T42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" s="1">
         <v>19</v>
       </c>
-      <c r="U42" s="1">
+      <c r="V42" s="1">
         <v>3</v>
       </c>
-      <c r="V42" t="s">
-        <v>117</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X42" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z42" s="1">
+      <c r="W42" t="s">
+        <v>117</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA42" s="1">
         <v>500</v>
       </c>
-      <c r="AA42" s="2" t="s">
+      <c r="AB42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB42" s="4">
+      <c r="AC42" s="4">
         <v>2</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AD42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AE42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
@@ -4929,70 +5065,73 @@
       <c r="H43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>33</v>
+      <c r="I43" s="1">
+        <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
         <v>50</v>
       </c>
-      <c r="T43" s="1">
+      <c r="U43" s="1">
         <v>52.25</v>
       </c>
-      <c r="U43" s="1">
-        <v>1</v>
-      </c>
-      <c r="V43" t="s">
-        <v>117</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X43" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z43" s="1">
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" t="s">
+        <v>117</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA43" s="1">
         <v>1000</v>
       </c>
-      <c r="AA43" s="2" t="s">
+      <c r="AB43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB43" s="4">
+      <c r="AC43" s="4">
         <v>2</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AE43" s="1">
         <v>3</v>
       </c>
     </row>
